--- a/jlptstudy.net/Expressions.xlsx
+++ b/jlptstudy.net/Expressions.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>どうも・ありがとうございました。</t>
   </si>
@@ -135,6 +135,72 @@
   </si>
   <si>
     <t>Pleased to meet you</t>
+  </si>
+  <si>
+    <t>いってらっしゃい。</t>
+  </si>
+  <si>
+    <t>A farewell greeting</t>
+  </si>
+  <si>
+    <t>いってまいります。</t>
+  </si>
+  <si>
+    <t>I'm going now</t>
+  </si>
+  <si>
+    <t>おかえりなさい</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>おかげさまで</t>
+  </si>
+  <si>
+    <t>Thanks to you</t>
+  </si>
+  <si>
+    <t>おだいじに</t>
+  </si>
+  <si>
+    <t>Take care (if someone is ill)</t>
+  </si>
+  <si>
+    <t>お待たせしました。</t>
+  </si>
+  <si>
+    <t>Sorry to have kept you waiting</t>
+  </si>
+  <si>
+    <t>おめでとうございます。</t>
+  </si>
+  <si>
+    <t>Congratulations</t>
+  </si>
+  <si>
+    <t>かしこまりました。</t>
+  </si>
+  <si>
+    <t>Certainly Sir/Madam</t>
+  </si>
+  <si>
+    <t>それはいけませんね。</t>
+  </si>
+  <si>
+    <t>That's no good</t>
+  </si>
+  <si>
+    <t>ただいま。</t>
+  </si>
+  <si>
+    <t>"I'm home" (said when returning home)</t>
+  </si>
+  <si>
+    <t>よく、いらっしゃいました。</t>
+  </si>
+  <si>
+    <t>Welcome</t>
   </si>
 </sst>
 </file>
@@ -475,116 +541,265 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A20"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A3" s="2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -595,179 +810,363 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="58.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A11" s="2" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A16" s="2" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A18" s="2" t="s">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A19" s="2" t="s">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="1" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jlptstudy.net/Expressions.xlsx
+++ b/jlptstudy.net/Expressions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Japanese" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="99">
   <si>
     <t>どうも・ありがとうございました。</t>
   </si>
@@ -31,22 +31,12 @@
     <t>いただきます。</t>
   </si>
   <si>
-    <t xml:space="preserve">(said before eating a meal)
-</t>
-  </si>
-  <si>
     <t>いらっしゃい・ませ。</t>
   </si>
   <si>
     <t>(では) おげんきで。</t>
   </si>
   <si>
-    <t>Welcome (to a store)</t>
-  </si>
-  <si>
-    <t>(when parting) Stay healthy</t>
-  </si>
-  <si>
     <t>おねがいします。</t>
   </si>
   <si>
@@ -74,9 +64,6 @@
     <t>ごめんください。</t>
   </si>
   <si>
-    <t>May I come in</t>
-  </si>
-  <si>
     <t>ごめんなさい。</t>
   </si>
   <si>
@@ -134,24 +121,12 @@
     <t>(どうぞ) よろしく。</t>
   </si>
   <si>
-    <t>Pleased to meet you</t>
-  </si>
-  <si>
     <t>いってらっしゃい。</t>
   </si>
   <si>
-    <t>A farewell greeting</t>
-  </si>
-  <si>
     <t>いってまいります。</t>
   </si>
   <si>
-    <t>I'm going now</t>
-  </si>
-  <si>
-    <t>おかえりなさい</t>
-  </si>
-  <si>
     <t>Welcome Home</t>
   </si>
   <si>
@@ -201,6 +176,147 @@
   </si>
   <si>
     <t>Welcome</t>
+  </si>
+  <si>
+    <t>おかえりなさい。</t>
+  </si>
+  <si>
+    <t>Welcome home (slightly formal)</t>
+  </si>
+  <si>
+    <t>おかえり。</t>
+  </si>
+  <si>
+    <t>いってきます。</t>
+  </si>
+  <si>
+    <t>I'm going (and coming back)</t>
+  </si>
+  <si>
+    <t>A farewell greeting (response to いってきます）</t>
+  </si>
+  <si>
+    <t>I'm going now ( formal version of いってきます)</t>
+  </si>
+  <si>
+    <t>(said before eating a meal)</t>
+  </si>
+  <si>
+    <t>Welcome (to store/shop only)</t>
+  </si>
+  <si>
+    <t>Please sit down</t>
+  </si>
+  <si>
+    <t>おかけください。</t>
+  </si>
+  <si>
+    <t>おかまいなく。</t>
+  </si>
+  <si>
+    <t>Please don't go to any trouble on my behalf</t>
+  </si>
+  <si>
+    <t>おきのどくに。</t>
+  </si>
+  <si>
+    <t>I'm so sorry (to hear about something bad)</t>
+  </si>
+  <si>
+    <t>(when parting / letter closing) Stay healthy / well</t>
+  </si>
+  <si>
+    <t>おげんきですか。</t>
+  </si>
+  <si>
+    <t>Are you well?</t>
+  </si>
+  <si>
+    <t>おじゃまします。</t>
+  </si>
+  <si>
+    <t>Sorry to intrude</t>
+  </si>
+  <si>
+    <t>おせわになりました。</t>
+  </si>
+  <si>
+    <t>I've been in your care</t>
+  </si>
+  <si>
+    <t>おはよう。</t>
+  </si>
+  <si>
+    <t>Good morning</t>
+  </si>
+  <si>
+    <t>おまたせしました。</t>
+  </si>
+  <si>
+    <t>Sorry to have kept you waiting.</t>
+  </si>
+  <si>
+    <t>おまちください。</t>
+  </si>
+  <si>
+    <t>Please wait.</t>
+  </si>
+  <si>
+    <t>おまちどうさま。</t>
+  </si>
+  <si>
+    <t>Thank you for waiting (to customer)</t>
+  </si>
+  <si>
+    <t>おめでとう。</t>
+  </si>
+  <si>
+    <t>Congratulations (very polite)</t>
+  </si>
+  <si>
+    <t>おやすみ。</t>
+  </si>
+  <si>
+    <t>Goodnight.</t>
+  </si>
+  <si>
+    <t>おやすみなさい。</t>
+  </si>
+  <si>
+    <t>Goodnight (slightly formal)</t>
+  </si>
+  <si>
+    <t>Certainly (it will be done)</t>
+  </si>
+  <si>
+    <t>ごえんりょなく。</t>
+  </si>
+  <si>
+    <t>Please don't hesitate</t>
+  </si>
+  <si>
+    <t>ごくろうさま。</t>
+  </si>
+  <si>
+    <t>Good job</t>
+  </si>
+  <si>
+    <t>ごぞんじですか。</t>
+  </si>
+  <si>
+    <t>Have you ever heard/know?</t>
+  </si>
+  <si>
+    <t>May I come in?</t>
+  </si>
+  <si>
+    <t>Very  Sorry</t>
+  </si>
+  <si>
+    <t>That's no good.</t>
+  </si>
+  <si>
+    <t>It's a pleasure (introductory phrase)</t>
   </si>
 </sst>
 </file>
@@ -224,16 +340,17 @@
     </font>
     <font>
       <sz val="26"/>
-      <color rgb="FF000000"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="26"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Meiryo"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -541,265 +658,276 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A52" sqref="A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="3"/>
+    <col min="1" max="1" width="84.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A1" s="1">
-        <v>1</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A2" s="1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A3" s="1">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A5" s="1">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A6" s="1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A8" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A9" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A11" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A9" s="1">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A10" s="1">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="2" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A15" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A12" s="1">
-        <v>12</v>
-      </c>
-      <c r="B12" s="2" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A13" s="1">
-        <v>13</v>
-      </c>
-      <c r="B13" s="2" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A18" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A14" s="1">
-        <v>14</v>
-      </c>
-      <c r="B14" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A15" s="1">
-        <v>15</v>
-      </c>
-      <c r="B15" s="2" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A21" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="2" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A23" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A24" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A25" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="2" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A26" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A27" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A28" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A29" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="2" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A31" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="2" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="2" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A35" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="2" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.9">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A38" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A39" s="3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A40" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A42" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A43" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A44" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A45" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A46" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A47" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A48" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A49" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A50" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A51" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.9">
+      <c r="A52" s="3" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -810,17 +938,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="84.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="84.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -828,7 +954,7 @@
       <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -839,293 +965,293 @@
       <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>3</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A3" s="1">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A4" s="1">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
+      <c r="B4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>8</v>
+      <c r="B5" s="3" t="s">
+        <v>5</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A6" s="1">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
+      <c r="B6" s="3" t="s">
+        <v>74</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>12</v>
+      <c r="B7" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A8" s="1">
         <v>8</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>16</v>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A10" s="1">
         <v>10</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
+      <c r="B10" s="3" t="s">
+        <v>84</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>20</v>
+      <c r="B11" s="3" t="s">
+        <v>86</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>21</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A12" s="1">
         <v>12</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>22</v>
+      <c r="B12" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A14" s="1">
         <v>14</v>
       </c>
-      <c r="B14" s="2" t="s">
-        <v>26</v>
+      <c r="B14" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A15" s="1">
         <v>15</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>28</v>
+      <c r="B15" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A16" s="1">
         <v>16</v>
       </c>
-      <c r="B16" s="2" t="s">
-        <v>29</v>
+      <c r="B16" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A17" s="1">
         <v>17</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>30</v>
+      <c r="B17" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A18" s="1">
         <v>18</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>32</v>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A19" s="1">
         <v>19</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>34</v>
+      <c r="B19" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>36</v>
+      <c r="B20" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="B21" s="2" t="s">
-        <v>38</v>
+      <c r="B21" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>40</v>
+      <c r="B22" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A23" s="1">
         <v>23</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>42</v>
+      <c r="B23" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>43</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A24" s="1">
         <v>24</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>44</v>
+      <c r="B24" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A25" s="1">
         <v>25</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>46</v>
+      <c r="B25" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A26" s="1">
         <v>26</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>48</v>
+      <c r="B26" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A27" s="1">
         <v>27</v>
       </c>
-      <c r="B27" s="2" t="s">
-        <v>50</v>
+      <c r="B27" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A28" s="1">
         <v>28</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" s="3" t="s">
         <v>52</v>
       </c>
       <c r="C28" s="1" t="s">
@@ -1136,33 +1262,264 @@
       <c r="A29" s="1">
         <v>29</v>
       </c>
-      <c r="B29" s="2" t="s">
-        <v>54</v>
+      <c r="B29" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>56</v>
+      <c r="B30" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>57</v>
+        <v>39</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.9">
       <c r="A31" s="1">
         <v>31</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>58</v>
+      <c r="B31" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>59</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.9">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/jlptstudy.net/Expressions.xlsx
+++ b/jlptstudy.net/Expressions.xlsx
@@ -353,12 +353,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -373,11 +379,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -660,9 +668,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
@@ -671,7 +677,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
@@ -681,7 +687,7 @@
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
@@ -691,7 +697,7 @@
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
     </row>
@@ -701,7 +707,7 @@
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -711,7 +717,7 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="4" t="s">
         <v>18</v>
       </c>
     </row>
@@ -721,7 +727,7 @@
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -731,7 +737,7 @@
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -741,7 +747,7 @@
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -751,7 +757,7 @@
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>22</v>
       </c>
     </row>
@@ -761,7 +767,7 @@
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -771,7 +777,7 @@
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
     </row>
@@ -781,7 +787,7 @@
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
     </row>
@@ -791,7 +797,7 @@
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
     </row>
@@ -801,7 +807,7 @@
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
     </row>
@@ -811,7 +817,7 @@
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
     </row>
@@ -821,7 +827,7 @@
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
     </row>
@@ -831,7 +837,7 @@
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
     </row>
@@ -841,7 +847,7 @@
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
     </row>
@@ -851,7 +857,7 @@
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
     </row>
@@ -861,7 +867,7 @@
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
     </row>
@@ -871,7 +877,7 @@
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
     </row>
@@ -881,7 +887,7 @@
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="4" t="s">
         <v>76</v>
       </c>
     </row>
@@ -891,7 +897,7 @@
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="4" t="s">
         <v>80</v>
       </c>
     </row>
@@ -901,7 +907,7 @@
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
     </row>
@@ -911,7 +917,7 @@
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -921,7 +927,7 @@
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.9">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="4" t="s">
         <v>93</v>
       </c>
     </row>
@@ -938,587 +944,430 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="41.25" x14ac:dyDescent="0.9"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="84.7109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="84.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A1" s="1">
+    <row r="1" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A2" s="1">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A3" s="1">
+    <row r="3" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A4" s="1">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A5" s="1">
+    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A6" s="1">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A6" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A7" s="1">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A8" s="1">
-        <v>8</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A9" s="1">
+    <row r="9" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A10" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A11" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A10" s="1">
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A11" s="1">
-        <v>11</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A12" s="1">
+      <c r="B13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A13" s="1">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A14" s="1">
+      <c r="B14" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A15" s="1">
+      <c r="B15" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A16" s="1">
-        <v>16</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A17" s="1">
-        <v>17</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A18" s="1">
-        <v>18</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A19" s="1">
-        <v>19</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A20" s="1">
-        <v>20</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A21" s="1">
-        <v>21</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" s="5" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A22" s="1">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="B22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A23" s="1">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A23" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="B23" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A24" s="1">
-        <v>24</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A24" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A25" s="1">
-        <v>25</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="B25" s="5" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A26" s="1">
-        <v>26</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A26" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A27" s="1">
-        <v>27</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A27" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A28" s="1">
-        <v>28</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A28" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A29" s="1">
-        <v>29</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A30" s="1">
-        <v>30</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A30" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A31" s="1">
-        <v>31</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A32" s="1">
-        <v>32</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A32" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A33" s="1">
-        <v>33</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A33" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A34" s="1">
-        <v>34</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A34" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A35" s="1">
-        <v>35</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A35" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A36" s="1">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A37" s="1">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A37" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" s="5" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A38" s="1">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A38" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A39" s="1">
-        <v>39</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A39" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="B39" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A40" s="1">
-        <v>40</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A40" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A41" s="1">
-        <v>41</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A41" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="B41" s="5" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A42" s="1">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A42" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A43" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A44" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A45" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A46" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B42" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A43" s="1">
-        <v>43</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A44" s="1">
+      <c r="B47" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A45" s="1">
-        <v>45</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A46" s="1">
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A50" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.9">
+      <c r="A51" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.9">
+      <c r="A52" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A47" s="1">
-        <v>47</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A48" s="1">
-        <v>48</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A49" s="1">
-        <v>49</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A50" s="1">
-        <v>50</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A51" s="1">
-        <v>51</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.9">
-      <c r="A52" s="1">
-        <v>52</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C52" s="1" t="s">
+      <c r="B52" s="1" t="s">
         <v>97</v>
       </c>
     </row>
